--- a/biology/Médecine/Valbénazine/Valbénazine.xlsx
+++ b/biology/Médecine/Valbénazine/Valbénazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valb%C3%A9nazine</t>
+          <t>Valbénazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La valbénazine, vendue sous le nom commercial Ingrezza[1].
+La valbénazine, vendue sous le nom commercial Ingrezza.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valb%C3%A9nazine</t>
+          <t>Valbénazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la dyskinésie tardive, un trouble du mouvement à long terme dû aux antipsychotiques[1]. Il est pris par voie orale[1]. Une utilisation à long terme est requise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la dyskinésie tardive, un trouble du mouvement à long terme dû aux antipsychotiques. Il est pris par voie orale. Une utilisation à long terme est requise.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valb%C3%A9nazine</t>
+          <t>Valbénazine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent la sécheresse de la bouche, la somnolence, la rétention urinaire, les vertiges et les maux de tête, d'autres effets secondaires comprennent l'allongement de l'intervalle QT[1],[2]. L'utilisation n'est pas recommandée chez les personnes souffrant de graves problèmes rénaux[1]. Il s'agit d'un inhibiteur du transporteur vésiculaire de la monoamine 2[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent la sécheresse de la bouche, la somnolence, la rétention urinaire, les vertiges et les maux de tête, d'autres effets secondaires comprennent l'allongement de l'intervalle QT,. L'utilisation n'est pas recommandée chez les personnes souffrant de graves problèmes rénaux. Il s'agit d'un inhibiteur du transporteur vésiculaire de la monoamine 2.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valb%C3%A9nazine</t>
+          <t>Valbénazine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La valbénazine a été approuvée pour un usage médical aux États-Unis en 2017[1]. En 2018, elle coûte entre 5 750 et 6 225 USD par mois[2]. Il n'est disponible que dans certaines pharmacies[3]. Elle n'est actuellement pas prévu de le vendre en Europe à partir de 2018[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valbénazine a été approuvée pour un usage médical aux États-Unis en 2017. En 2018, elle coûte entre 5 750 et 6 225 USD par mois. Il n'est disponible que dans certaines pharmacies. Elle n'est actuellement pas prévu de le vendre en Europe à partir de 2018.
 </t>
         </is>
       </c>
